--- a/paysheets/ginopaysheet.xlsx
+++ b/paysheets/ginopaysheet.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -435,7 +435,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -452,7 +452,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>4/8</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>4/10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>4/12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4/8</t>
+          <t>4/15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>4/19</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4/15</t>
+          <t>4/22</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1220,7 +1220,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1284,7 +1284,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4/17</t>
+          <t>4/24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4/19</t>
+          <t>4/26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4/22</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1517,341 +1517,6 @@
         </is>
       </c>
       <c r="C38" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>w60</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>w61</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>pe</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>w71</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>w66</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>pe</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>w49</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ext</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4/24</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>ext</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>f70</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>w67</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>w52</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>w46</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ext</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4/26</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>ext</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>w57</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>w75</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>w48</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>w45</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ext</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>.5</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4/29</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>ext</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>.5</t>
         </is>
